--- a/uploads/customer data.xlsx
+++ b/uploads/customer data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5AC76-F317-4518-8682-D91A1517CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E5F76-A28B-4A1A-BF16-1BE86F3501CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="9960" xr2:uid="{1EAF4CE0-881B-44ED-AD4C-FD26D9EF0A48}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -42,18 +42,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Arun Kumar</t>
-  </si>
-  <si>
-    <t>Priya Sharma</t>
-  </si>
-  <si>
-    <t>Rahul Singh</t>
-  </si>
-  <si>
-    <t>Sneha R</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -63,41 +51,20 @@
     <t>address</t>
   </si>
   <si>
-    <t>arun@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>priya@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Coimbatore</t>
-  </si>
-  <si>
-    <t>rahul@gmail.com</t>
-  </si>
-  <si>
-    <t>Madurai</t>
-  </si>
-  <si>
-    <t>sneha@gmail.com</t>
-  </si>
-  <si>
-    <t>Trichy</t>
+    <t>thamem</t>
+  </si>
+  <si>
+    <t>thamem@gamil.com</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +76,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,10 +106,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -142,8 +118,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,7 +439,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,84 +455,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>555555</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="2">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>9876543210</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9123456780</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9988776655</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9090909090</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CE720914-06BE-4721-8723-387946F2C612}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/customer data.xlsx
+++ b/uploads/customer data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E5F76-A28B-4A1A-BF16-1BE86F3501CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6087AC3-AA7A-44E0-86F0-D9E1393F0E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="9960" xr2:uid="{1EAF4CE0-881B-44ED-AD4C-FD26D9EF0A48}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="9960" xr2:uid="{1EAF4CE0-881B-44ED-AD4C-FD26D9EF0A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -51,13 +51,13 @@
     <t>address</t>
   </si>
   <si>
-    <t>thamem</t>
-  </si>
-  <si>
-    <t>thamem@gamil.com</t>
-  </si>
-  <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>akash@gmail.com</t>
+  </si>
+  <si>
+    <t>h11</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,9 +464,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>555555</v>
@@ -475,25 +475,45 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>555555</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>555555</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -504,7 +524,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{CE720914-06BE-4721-8723-387946F2C612}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{FC0B8634-FD89-47AA-A308-2B06707D8EAB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{63AA44A5-F50B-49A8-AE89-0B14494D7247}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CC2639A6-3FBE-4F5F-B94C-8869D80CF755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
